--- a/File/Test1.xlsx
+++ b/File/Test1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{18E92163-C561-47B6-B103-57976BDA7B33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852AB874-F927-47A3-9E5E-1393771F0577}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="20760" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t xml:space="preserve">Flat no </t>
   </si>
@@ -91,9 +90,6 @@
     <t>ayesha</t>
   </si>
   <si>
-    <t>Shbham</t>
-  </si>
-  <si>
     <t>Aspire</t>
   </si>
   <si>
@@ -101,6 +97,33 @@
   </si>
   <si>
     <t>Institute</t>
+  </si>
+  <si>
+    <t>Shbham Ayesha</t>
+  </si>
+  <si>
+    <t>SHUBHAM</t>
+  </si>
+  <si>
+    <t>PARSHURAM</t>
+  </si>
+  <si>
+    <t>BHAMBERE</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>536</t>
+  </si>
+  <si>
+    <t>1234567890</t>
   </si>
 </sst>
 </file>
@@ -467,7 +490,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,14 +542,14 @@
       <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1234567890</v>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -550,17 +573,17 @@
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1">
-        <v>105</v>
-      </c>
-      <c r="C5" s="1">
-        <v>501</v>
-      </c>
-      <c r="D5" s="1">
-        <v>504</v>
-      </c>
-      <c r="E5" s="1">
-        <v>536</v>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -602,22 +625,22 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
@@ -632,12 +655,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30361026-2C4D-49DE-AA53-12E9C080F7B1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>